--- a/datos/historial_tods_preguntas.xlsx
+++ b/datos/historial_tods_preguntas.xlsx
@@ -161,7 +161,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -184,13 +184,11 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="n">
-        <v>12258</v>
+        <v>12260</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
-        <v>12307</v>
-      </c>
+      <c r="A4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3"/>
